--- a/Data/Weather Stations/mountRussellBallymacshaneboy.xlsx
+++ b/Data/Weather Stations/mountRussellBallymacshaneboy.xlsx
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -58,6 +58,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -85,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -96,6 +97,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -6368,15 +6372,15 @@
       </c>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="1">
-        <v>77.3</v>
+      <c r="A404" s="6">
+        <v>7.3</v>
       </c>
       <c r="B404" s="1">
         <v>5.6</v>
       </c>
       <c r="C404" s="1">
         <f t="shared" si="1"/>
-        <v>41.45</v>
+        <v>6.45</v>
       </c>
       <c r="D404" s="4">
         <v>39120.0</v>
@@ -9038,15 +9042,15 @@
       </c>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="1">
-        <v>49.7</v>
-      </c>
-      <c r="B582" s="1">
+      <c r="A582" s="6">
         <v>19.9</v>
       </c>
+      <c r="B582" s="6">
+        <v>14.2</v>
+      </c>
       <c r="C582" s="1">
         <f t="shared" si="1"/>
-        <v>34.8</v>
+        <v>17.05</v>
       </c>
       <c r="D582" s="4">
         <v>39298.0</v>
